--- a/biology/Botanique/Zinnia_grandiflora/Zinnia_grandiflora.xlsx
+++ b/biology/Botanique/Zinnia_grandiflora/Zinnia_grandiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zinnia grandiflora est une espèce de plantes à fleurs de la famille des Asteraceae.
 Synonyme
@@ -515,12 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante forme de petits buissons bas de 7,5 à 22,5 cm de hauteur, arrondis, aux rameaux courts et un peu ligneux. Les feuilles, qui mesurent environ 2,5 cm de long, sont opposées, étroites, et présentent 3 nervures à leur base[1].
-Appareil reproducteur
-La floraison a lieu de juin à octobre.
-L'inflorescence est un groupe de capitules de couleur jaune ou jaune-orangé. Chaque capitule mesure 2,5 à 3,8 cm de diamètre. Il est composé de 3 à 6 fleurons ligulés très larges et de forme arrondie entourant un centre constitué de fleurons tubulaires orange-rougâtre à brun-verdâtre. Ce capitule est précédé de bractées se superposant et à l'extrémité arrondie et translucide[1].
-Le fruit est un akène qui présente 1 ou 2 épines à son sommet.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante forme de petits buissons bas de 7,5 à 22,5 cm de hauteur, arrondis, aux rameaux courts et un peu ligneux. Les feuilles, qui mesurent environ 2,5 cm de long, sont opposées, étroites, et présentent 3 nervures à leur base.
 </t>
         </is>
       </c>
@@ -546,10 +559,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de juin à octobre.
+L'inflorescence est un groupe de capitules de couleur jaune ou jaune-orangé. Chaque capitule mesure 2,5 à 3,8 cm de diamètre. Il est composé de 3 à 6 fleurons ligulés très larges et de forme arrondie entourant un centre constitué de fleurons tubulaires orange-rougâtre à brun-verdâtre. Ce capitule est précédé de bractées se superposant et à l'extrémité arrondie et translucide.
+Le fruit est un akène qui présente 1 ou 2 épines à son sommet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Zinnia_grandiflora</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zinnia_grandiflora</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante vit au sud-ouest des États-Unis et au Mexique. Sa limite nord va de l'Arizona au Colorado et au Kansas.
 Elle pousse dans les plaines et déserts arides.
